--- a/casos de uso/casosdeuso.xlsx
+++ b/casos de uso/casosdeuso.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LabTiny\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LabTiny\Desktop\producto2\repositorio\PRODUCT_DESIGN\casos de uso\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -302,14 +302,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -318,13 +324,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,7 +643,7 @@
   <dimension ref="B1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,15 +656,15 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="P2" t="s">
         <v>45</v>
       </c>
@@ -676,15 +676,15 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="P3" t="s">
         <v>55</v>
       </c>
@@ -696,15 +696,15 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
       <c r="M4" t="s">
         <v>51</v>
       </c>
@@ -719,15 +719,15 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="M5" t="s">
         <v>52</v>
       </c>
@@ -742,15 +742,15 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="M6" t="s">
         <v>53</v>
       </c>
@@ -762,20 +762,20 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="M7" t="s">
         <v>57</v>
       </c>
@@ -787,18 +787,18 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="L8" t="s">
         <v>59</v>
       </c>
@@ -813,35 +813,35 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="P9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="O10" t="s">
         <v>62</v>
       </c>
@@ -850,357 +850,380 @@
       </c>
     </row>
     <row r="11" spans="2:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:18" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="4">
         <v>6</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="2:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="4">
         <v>7</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="4">
         <v>8</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:18" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="4">
         <v>9</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="2:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="4">
         <v>10</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="4">
         <v>11</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="5">
+      <c r="B19" s="6"/>
+      <c r="C19" s="12">
         <v>12</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="2:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="4">
         <v>12.1</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="4">
         <v>13</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="2:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="4">
         <v>14</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="2:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="5">
+      <c r="B23" s="6"/>
+      <c r="C23" s="12">
         <v>15</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="4">
         <v>15.1</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="4">
         <v>16</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="2:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="4">
         <v>17</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="2:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="4">
         <v>18</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12">
         <v>1</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="4">
         <v>1.2</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="4">
         <v>1.3</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="4">
         <v>1.4</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="D25:I25"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="B7:B27"/>
     <mergeCell ref="D7:I7"/>
@@ -1217,29 +1240,6 @@
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/casos de uso/casosdeuso.xlsx
+++ b/casos de uso/casosdeuso.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Casos Tipicos" sheetId="1" r:id="rId1"/>
+    <sheet name="Casos Administrativos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>CU-01</t>
   </si>
@@ -162,73 +163,19 @@
     <t>- Gestionar la reserva de las habitaciones                                                                                                                                                                       -Conocer las preferencias del cliente                                                                                                                                                                                 -fecha de salida y entrega de la habitación</t>
   </si>
   <si>
-    <t>registro ingreso al hotel</t>
-  </si>
-  <si>
-    <t>control de las habitaciones</t>
-  </si>
-  <si>
-    <t>tipico</t>
-  </si>
-  <si>
-    <t>administrativo</t>
-  </si>
-  <si>
-    <t>nuevos convenios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuevos servicios </t>
-  </si>
-  <si>
-    <t>nuevos productos</t>
-  </si>
-  <si>
-    <t>nuevos edificios</t>
-  </si>
-  <si>
-    <t>nuevos hoteles</t>
-  </si>
-  <si>
-    <t>hacer crud en tablas</t>
-  </si>
-  <si>
-    <t>hacer crud masivo: archivos de excel, etc.</t>
-  </si>
-  <si>
-    <t>buscar como cargar archivos de excel en mongodb con nodejs</t>
-  </si>
-  <si>
-    <t>nuevos descuentos</t>
-  </si>
-  <si>
-    <t>nuevas habitaciones</t>
-  </si>
-  <si>
-    <t>nuevos eventos</t>
-  </si>
-  <si>
-    <t>permisos en servicios, tabla de roles</t>
-  </si>
-  <si>
-    <t>verificar el consumo del servicio</t>
-  </si>
-  <si>
-    <t>middleware</t>
-  </si>
-  <si>
-    <t>registro de uso de servicio hotel</t>
-  </si>
-  <si>
-    <t>registro servicio aliado</t>
-  </si>
-  <si>
-    <t>agregar tabla eventos</t>
-  </si>
-  <si>
-    <t>registro producto hotel</t>
-  </si>
-  <si>
-    <t>registro producto aliado</t>
+    <t>CU-02</t>
+  </si>
+  <si>
+    <t>Registro ingreso al hotel</t>
+  </si>
+  <si>
+    <t>- Gestionar el acceso al hotel                                                                                                                                                                     -Conocer los lugares mas visitados por los clientes                                                                                                                                                                                 -fecha de salida y entrega de la habitación</t>
+  </si>
+  <si>
+    <t>El cliente ya debe tener la tarjeta de acceso al hotel.</t>
+  </si>
+  <si>
+    <t>El sistema deberá comportarse como se describe en el siguiente caso de uso cuando el cliente desee ingresar a las instalaciones del hotel.</t>
   </si>
 </sst>
 </file>
@@ -292,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -301,6 +248,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -312,19 +271,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R35"/>
+  <dimension ref="B1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,143 +601,95 @@
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="P2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="P3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="2:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="M7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
       <c r="C8" s="4">
         <v>1</v>
       </c>
@@ -799,21 +701,9 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="L8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
+    </row>
+    <row r="9" spans="2:9" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
       <c r="C9" s="4">
         <v>2</v>
       </c>
@@ -825,74 +715,65 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="P9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
+    </row>
+    <row r="10" spans="2:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
       <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="O10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="2:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
       <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="2:18" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="2:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
       <c r="C13" s="4">
         <v>6</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="2:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="2:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
       <c r="C14" s="4">
         <v>7</v>
       </c>
@@ -905,22 +786,22 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="2:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
+    <row r="15" spans="2:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
       <c r="C15" s="4">
         <v>8</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:18" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="2:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
       <c r="C16" s="4">
         <v>9</v>
       </c>
@@ -934,21 +815,21 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="2:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="4">
         <v>10</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="4">
         <v>11</v>
       </c>
@@ -962,8 +843,8 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="12">
+      <c r="B19" s="10"/>
+      <c r="C19" s="6">
         <v>12</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -976,8 +857,8 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="2:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="4">
         <v>12.1</v>
       </c>
@@ -990,7 +871,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="4">
         <v>13</v>
       </c>
@@ -1004,7 +885,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="2:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="4">
         <v>14</v>
       </c>
@@ -1018,8 +899,8 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="2:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="12">
+      <c r="B23" s="10"/>
+      <c r="C23" s="6">
         <v>15</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -1032,8 +913,8 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="4">
         <v>15.1</v>
       </c>
@@ -1046,7 +927,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="4">
         <v>16</v>
       </c>
@@ -1060,7 +941,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="2:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="4">
         <v>17</v>
       </c>
@@ -1074,66 +955,66 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="2:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="4">
         <v>18</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6">
         <v>1</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -1146,8 +1027,8 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="4">
         <v>1.2</v>
       </c>
@@ -1160,8 +1041,8 @@
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="4">
         <v>1.3</v>
       </c>
@@ -1174,56 +1055,551 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="4">
         <v>1.4</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
+      <c r="C46" s="5">
+        <v>2</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="10"/>
+      <c r="C47" s="5">
+        <v>3</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="10"/>
+      <c r="C48" s="5">
+        <v>4</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
+      <c r="C49" s="5">
+        <v>5</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="10"/>
+      <c r="C50" s="5">
+        <v>6</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="10"/>
+      <c r="C51" s="5">
+        <v>7</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="10"/>
+      <c r="C52" s="5">
+        <v>8</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="10"/>
+      <c r="C53" s="5">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="10"/>
+      <c r="C54" s="5">
+        <v>10</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="10"/>
+      <c r="C55" s="5">
+        <v>11</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="10"/>
+      <c r="C56" s="6">
+        <v>12</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="10"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="5">
+        <v>12.1</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="10"/>
+      <c r="C58" s="5">
+        <v>13</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="10"/>
+      <c r="C59" s="5">
+        <v>14</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="10"/>
+      <c r="C60" s="6">
+        <v>15</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="10"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="5">
+        <v>15.1</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="10"/>
+      <c r="C62" s="5">
+        <v>16</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="10"/>
+      <c r="C63" s="5">
+        <v>17</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="10"/>
+      <c r="C64" s="5">
+        <v>18</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="D25:I25"/>
+  <mergeCells count="78">
+    <mergeCell ref="C72:I72"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="C65:I65"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="E71:I71"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="B44:B64"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="D52:I52"/>
+    <mergeCell ref="D53:I53"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C43:I43"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="B7:B27"/>
     <mergeCell ref="D7:I7"/>
@@ -1240,7 +1616,42 @@
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>